--- a/Pflanzendaten version 2.xlsx
+++ b/Pflanzendaten version 2.xlsx
@@ -1,27 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Riverengineering\proj1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\stud-schoeberl-Riverengineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D25D79-4D44-45CB-8875-F551EF212FB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="1905" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Pflanzendaten.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="113">
   <si>
     <t>Carex</t>
   </si>
@@ -191,21 +189,9 @@
     <t>Calamagrostis pseudophragmites</t>
   </si>
   <si>
-    <t>0.9 min</t>
-  </si>
-  <si>
-    <t>20 bis 40</t>
-  </si>
-  <si>
-    <t>20 bis 350</t>
-  </si>
-  <si>
     <t>90cm ver und 2-3m horizontal</t>
   </si>
   <si>
-    <t>Pflanzen</t>
-  </si>
-  <si>
     <t>Name Spez</t>
   </si>
   <si>
@@ -354,12 +340,30 @@
   </si>
   <si>
     <t xml:space="preserve"> https://www.lv-wli.de/files/pdf/Fachbereiche/Bienenweide/heimische-gehoelze-in-nrw.pdf</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>Lateinischer Name</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>Quelle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1203,113 +1207,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1318,144 +1333,147 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
       </c>
-      <c r="I10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -1464,38 +1482,38 @@
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -1507,167 +1525,173 @@
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="J18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -1678,318 +1702,315 @@
       <c r="F22" t="s">
         <v>3</v>
       </c>
-      <c r="G22" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>96</v>
       </c>
-      <c r="F24" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>101</v>
-      </c>
       <c r="F32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F50" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F51" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F52" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F53" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F54" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>89</v>
       </c>
       <c r="F56" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" t="s">
-        <v>6</v>
+      <c r="A57" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="F57" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1997,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
@@ -2009,27 +2030,27 @@
         <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2037,19 +2058,19 @@
         <v>42</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2057,74 +2078,94 @@
         <v>42</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C62" t="s">
         <v>8</v>
       </c>
       <c r="D62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
         <v>5</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E63" t="s">
         <v>6</v>
       </c>
-      <c r="F62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>70</v>
+      <c r="F63" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>80</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Pflanzendaten version 2.xlsx
+++ b/Pflanzendaten version 2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\stud-schoeberl-Riverengineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Riverengineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7993EF7-8A8A-4316-A5AC-4E7D8AC1EF82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="1905" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="31410" yWindow="1725" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pflanzendaten.csv" sheetId="1" r:id="rId1"/>
@@ -363,7 +364,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1207,11 +1208,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
